--- a/revref_editor.xlsx
+++ b/revref_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3FBDDF-6236-4DDA-AC48-D2B614090671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FADE0C7-0963-48E7-9AA5-F0A1667380C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19935" yWindow="2355" windowWidth="18450" windowHeight="11670" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -131,57 +131,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エディタとは上に色々なボタンが表示されている入力欄のことです</t>
-    <rPh sb="6" eb="7">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エディタ内の画像を入れたい場所にカーソルを合わせます</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上に表示されている「イメージを挿入または編集する」（写真のマーク）をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自分のPCに画像が保存されている場合は「リポジトリを参照する…」をクリックします</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -221,6 +170,67 @@
     <t>「イメージを保存する」をクリックします</t>
     <rPh sb="6" eb="8">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタ内で画像を入れたい場所にカーソルを合わせます</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタはデフォルトで設定していると入力欄の上にボタンが表示されています
+※タイトルなど利用できない入力欄もあります</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタの上に表示されている「イメージを挿入または編集する」（写真のマーク）をクリックします</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -685,7 +695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -729,10 +741,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -748,7 +760,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -756,31 +768,31 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/revref_editor.xlsx
+++ b/revref_editor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FADE0C7-0963-48E7-9AA5-F0A1667380C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5900C0D-FA60-450C-A1C8-CF8B3E690091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19935" yWindow="2355" windowWidth="18450" windowHeight="11670" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="12240" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>header1</t>
   </si>
@@ -231,6 +231,126 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタを使用して、説明文に数式を入れる方法を説明します</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタ内で数式を入れたい場所にカーソルを合わせます</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタの一番左上に表示されている矢印のボタン（さらにボタンを表示する）をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エディタの二列目に表示されているの電卓マークのボタン（数式エディタ）をクリックします</t>
+    <rPh sb="5" eb="8">
+      <t>ニレツメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>演算子やギリシャ文字などのボタンを利用し、数式を入力します</t>
+    <rPh sb="0" eb="3">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数式プレビューを確認し、間違いがない場合は「数式を保存する」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -340,9 +460,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,7 +500,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -486,7 +606,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -628,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,15 +758,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -662,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,18 +790,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -695,21 +815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -733,15 +853,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -749,7 +869,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -757,7 +877,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -765,55 +885,55 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -825,23 +945,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -857,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -865,69 +985,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -944,17 +1085,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -970,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -978,15 +1119,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -994,52 +1135,52 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1057,17 +1198,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1091,15 +1232,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1107,52 +1248,52 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1170,17 +1311,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1204,15 +1345,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1220,52 +1361,52 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
